--- a/biology/Zoologie/Démodécie/Démodécie.xlsx
+++ b/biology/Zoologie/Démodécie/Démodécie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9mod%C3%A9cie</t>
+          <t>Démodécie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La démodécie ou gale folliculaire est une maladie de peau touchant le chien et due à l’infestation des follicules pileux par un acarien microscopique de forme allongée (vermiforme), appelé Demodex canis. Couramment nommée « gale démodécique », elle ne doit pour autant pas être confondue avec la gale sarcoptique, qui est une maladie provoquée par un acarien différent.
 Le demodex canis fait partie de la flore normale de la peau du chien, où on les retrouve en très petit nombre. Ils sont transmis de la mère aux chiots vers l'âge de 2-3 jours.  Les chiens atteints de démodécie ont un nombre accru de ces acariens dans leurs follicules pileux.  Cette maladie n'est pas contagieuse pour l'homme, mais elle peut l'être pour les autres chiens, notamment s'il s'agit de chiots ou si leur système immunitaire est fragilisé.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9mod%C3%A9cie</t>
+          <t>Démodécie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Symptômes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les lésions dermatologiques principales lors de démodécie sont des pertes de poils circonscrites ou étendues. On observe aussi souvent des squames (pellicules). Parfois la démodécie est compliquée par l’apparition d’une surinfection bactérienne de la peau (on parle alors de pyodémodécie) ou par une réaction inflammatoire cutanée importante.
 </t>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>D%C3%A9mod%C3%A9cie</t>
+          <t>Démodécie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Ses formes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Il existe plusieurs formes de démodécie :
 La démodécie sèche ou démodécie localisée, qui s'observe chez les chiots de trois à douze mois. Celle-ci peut se présenter sous une forme localisée (lésions sur les membres, au niveau des espaces inter-digités notamment, et sur la face, principalement autour des yeux) ou sous une forme disséminée (dépilations diffuses, séborrhée, forte odeur cutanée). En général, on n’observe pas de démangeaisons. Les chiens atteints de ce type de démodécie guérissent, dans 90 % des cas, sans séquelle.
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>D%C3%A9mod%C3%A9cie</t>
+          <t>Démodécie</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Diagnostic</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le diagnostic de la démodécie se fait à partir de l’examen microscopique de prélèvements obtenus à la suite de raclages (grattages) cutanés. On met en évidence le parasite, dont l'aspect est caractéristique.
 </t>
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>D%C3%A9mod%C3%A9cie</t>
+          <t>Démodécie</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,7 +625,9 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Après identification du parasite, le traitement peut être soit oral (molécule spécialement orientée vers le Demodex) ou externe (bains d'acaricide). Dans un cas comme dans l'autre, le traitement est toujours assez long, allant de plusieurs semaines à plusieurs mois. Un contrôle régulier doit être réalisé en effectuant des raclages cutanés. Le traitement peut être suspendu quand on n’observe plus de parasites sur deux raclages réalisés à une semaine d’intervalle.
 Les récidives sont peu fréquentes (10 % des cas).
